--- a/Team-Data/2008-09/2-28-2008-09.xlsx
+++ b/Team-Data/2008-09/2-28-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -756,7 +823,7 @@
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI2" t="n">
         <v>23</v>
@@ -771,7 +838,7 @@
         <v>8</v>
       </c>
       <c r="AM2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN2" t="n">
         <v>17</v>
@@ -786,13 +853,13 @@
         <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS2" t="n">
         <v>20</v>
       </c>
       <c r="AT2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-28-2008-09</t>
+          <t>2009-02-28</t>
         </is>
       </c>
     </row>
@@ -848,22 +915,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" t="n">
         <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>0.78</v>
+        <v>0.783</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J3" t="n">
         <v>77.09999999999999</v>
@@ -875,31 +942,31 @@
         <v>6.6</v>
       </c>
       <c r="M3" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.395</v>
+        <v>0.393</v>
       </c>
       <c r="O3" t="n">
         <v>20.2</v>
       </c>
       <c r="P3" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.773</v>
+        <v>0.77</v>
       </c>
       <c r="R3" t="n">
         <v>10.7</v>
       </c>
       <c r="S3" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T3" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V3" t="n">
         <v>15.9</v>
@@ -908,25 +975,25 @@
         <v>8.1</v>
       </c>
       <c r="X3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y3" t="n">
         <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AA3" t="n">
         <v>22.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.8</v>
+        <v>101.6</v>
       </c>
       <c r="AC3" t="n">
         <v>9.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>2</v>
@@ -938,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -953,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="AM3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO3" t="n">
         <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS3" t="n">
         <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
@@ -986,7 +1053,7 @@
         <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-28-2008-09</t>
+          <t>2009-02-28</t>
         </is>
       </c>
     </row>
@@ -1030,43 +1097,43 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="n">
         <v>35</v>
       </c>
       <c r="G4" t="n">
-        <v>0.417</v>
+        <v>0.407</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
       </c>
       <c r="I4" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="J4" t="n">
-        <v>76.7</v>
+        <v>76.5</v>
       </c>
       <c r="K4" t="n">
         <v>0.45</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M4" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.372</v>
+        <v>0.369</v>
       </c>
       <c r="O4" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="P4" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="Q4" t="n">
         <v>0.739</v>
@@ -1081,7 +1148,7 @@
         <v>39.5</v>
       </c>
       <c r="U4" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="V4" t="n">
         <v>15.7</v>
@@ -1096,28 +1163,28 @@
         <v>6.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.9</v>
+        <v>-2</v>
       </c>
       <c r="AD4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
         <v>2</v>
@@ -1132,28 +1199,28 @@
         <v>20</v>
       </c>
       <c r="AL4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM4" t="n">
         <v>23</v>
       </c>
       <c r="AN4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
         <v>25</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ4" t="n">
         <v>28</v>
       </c>
       <c r="AR4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT4" t="n">
         <v>25</v>
@@ -1168,13 +1235,13 @@
         <v>16</v>
       </c>
       <c r="AX4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA4" t="n">
         <v>13</v>
@@ -1183,7 +1250,7 @@
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-28-2008-09</t>
+          <t>2009-02-28</t>
         </is>
       </c>
     </row>
@@ -1227,13 +1294,13 @@
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K5" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L5" t="n">
         <v>5.9</v>
@@ -1242,31 +1309,31 @@
         <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.375</v>
+        <v>0.377</v>
       </c>
       <c r="O5" t="n">
-        <v>19.3</v>
+        <v>19.6</v>
       </c>
       <c r="P5" t="n">
-        <v>24.5</v>
+        <v>24.9</v>
       </c>
       <c r="Q5" t="n">
         <v>0.788</v>
       </c>
       <c r="R5" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T5" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U5" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V5" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
@@ -1281,22 +1348,22 @@
         <v>21.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB5" t="n">
         <v>100.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
         <v>19</v>
@@ -1308,13 +1375,13 @@
         <v>8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM5" t="n">
         <v>24</v>
@@ -1323,16 +1390,16 @@
         <v>10</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
       </c>
       <c r="AR5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS5" t="n">
         <v>14</v>
@@ -1344,7 +1411,7 @@
         <v>12</v>
       </c>
       <c r="AV5" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AW5" t="n">
         <v>11</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-28-2008-09</t>
+          <t>2009-02-28</t>
         </is>
       </c>
     </row>
@@ -1394,49 +1461,49 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6" t="n">
         <v>45</v>
       </c>
       <c r="F6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>0.804</v>
+        <v>0.789</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="J6" t="n">
-        <v>78.5</v>
+        <v>78.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.471</v>
+        <v>0.47</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.387</v>
+        <v>0.385</v>
       </c>
       <c r="O6" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P6" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R6" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S6" t="n">
         <v>31</v>
@@ -1445,40 +1512,40 @@
         <v>41.8</v>
       </c>
       <c r="U6" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V6" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="W6" t="n">
         <v>7.6</v>
       </c>
       <c r="X6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.5</v>
+        <v>100.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
         <v>3</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG6" t="n">
         <v>2</v>
@@ -1487,7 +1554,7 @@
         <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
         <v>24</v>
@@ -1508,13 +1575,13 @@
         <v>20</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
@@ -1541,7 +1608,7 @@
         <v>6</v>
       </c>
       <c r="BA6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-28-2008-09</t>
+          <t>2009-02-28</t>
         </is>
       </c>
     </row>
@@ -1654,19 +1721,19 @@
         <v>1.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
         <v>10</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
@@ -1684,10 +1751,10 @@
         <v>11</v>
       </c>
       <c r="AN7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
@@ -1699,13 +1766,13 @@
         <v>13</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
         <v>4</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-28-2008-09</t>
+          <t>2009-02-28</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1848,13 +1915,13 @@
         <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR8" t="n">
         <v>23</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-28-2008-09</t>
+          <t>2009-02-28</t>
         </is>
       </c>
     </row>
@@ -2018,13 +2085,13 @@
         <v>-1</v>
       </c>
       <c r="AD9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="n">
         <v>16</v>
@@ -2033,7 +2100,7 @@
         <v>14</v>
       </c>
       <c r="AI9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ9" t="n">
         <v>22</v>
@@ -2042,7 +2109,7 @@
         <v>16</v>
       </c>
       <c r="AL9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM9" t="n">
         <v>28</v>
@@ -2060,7 +2127,7 @@
         <v>25</v>
       </c>
       <c r="AR9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AS9" t="n">
         <v>16</v>
@@ -2084,7 +2151,7 @@
         <v>4</v>
       </c>
       <c r="AZ9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA9" t="n">
         <v>26</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-28-2008-09</t>
+          <t>2009-02-28</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2224,7 +2291,7 @@
         <v>12</v>
       </c>
       <c r="AL10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM10" t="n">
         <v>17</v>
@@ -2266,7 +2333,7 @@
         <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BA10" t="n">
         <v>3</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-28-2008-09</t>
+          <t>2009-02-28</t>
         </is>
       </c>
     </row>
@@ -2304,46 +2371,46 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" t="n">
         <v>37</v>
       </c>
       <c r="F11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" t="n">
-        <v>0.627</v>
+        <v>0.638</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J11" t="n">
-        <v>79.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L11" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M11" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="N11" t="n">
         <v>0.38</v>
       </c>
       <c r="O11" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="P11" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R11" t="n">
         <v>10.7</v>
@@ -2355,10 +2422,10 @@
         <v>43</v>
       </c>
       <c r="U11" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V11" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W11" t="n">
         <v>6.9</v>
@@ -2370,34 +2437,34 @@
         <v>5.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
         <v>20.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH11" t="n">
         <v>20</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ11" t="n">
         <v>18</v>
@@ -2418,13 +2485,13 @@
         <v>12</v>
       </c>
       <c r="AP11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
         <v>3</v>
       </c>
       <c r="AR11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2433,13 +2500,13 @@
         <v>5</v>
       </c>
       <c r="AU11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AV11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
@@ -2457,7 +2524,7 @@
         <v>18</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-28-2008-09</t>
+          <t>2009-02-28</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL12" t="n">
         <v>5</v>
@@ -2618,13 +2685,13 @@
         <v>5</v>
       </c>
       <c r="AV12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
         <v>27</v>
@@ -2639,7 +2706,7 @@
         <v>5</v>
       </c>
       <c r="BC12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-28-2008-09</t>
+          <t>2009-02-28</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
       </c>
       <c r="F13" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" t="n">
-        <v>0.25</v>
+        <v>0.254</v>
       </c>
       <c r="H13" t="n">
         <v>48.6</v>
@@ -2686,25 +2753,25 @@
         <v>35.9</v>
       </c>
       <c r="J13" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L13" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M13" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="N13" t="n">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="O13" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P13" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Q13" t="n">
         <v>0.745</v>
@@ -2722,13 +2789,13 @@
         <v>21</v>
       </c>
       <c r="V13" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W13" t="n">
         <v>7.1</v>
       </c>
       <c r="X13" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y13" t="n">
         <v>5.2</v>
@@ -2743,10 +2810,10 @@
         <v>95.09999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
         <v>26</v>
@@ -2758,10 +2825,10 @@
         <v>27</v>
       </c>
       <c r="AH13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ13" t="n">
         <v>8</v>
@@ -2782,7 +2849,7 @@
         <v>27</v>
       </c>
       <c r="AP13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
         <v>26</v>
@@ -2800,10 +2867,10 @@
         <v>13</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2812,7 +2879,7 @@
         <v>22</v>
       </c>
       <c r="AZ13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA13" t="n">
         <v>25</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-28-2008-09</t>
+          <t>2009-02-28</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" t="n">
         <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2868,7 +2935,7 @@
         <v>40.7</v>
       </c>
       <c r="J14" t="n">
-        <v>85.40000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="K14" t="n">
         <v>0.477</v>
@@ -2877,31 +2944,31 @@
         <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.364</v>
+        <v>0.367</v>
       </c>
       <c r="O14" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="P14" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R14" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S14" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T14" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U14" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V14" t="n">
         <v>13.7</v>
@@ -2913,22 +2980,22 @@
         <v>5.1</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
@@ -2940,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
@@ -2958,7 +3025,7 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AO14" t="n">
         <v>5</v>
@@ -2973,7 +3040,7 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2988,7 +3055,7 @@
         <v>3</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
         <v>13</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-28-2008-09</t>
+          <t>2009-02-28</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" t="n">
-        <v>0.259</v>
+        <v>0.263</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
@@ -3050,7 +3117,7 @@
         <v>34.7</v>
       </c>
       <c r="J15" t="n">
-        <v>77.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="K15" t="n">
         <v>0.448</v>
@@ -3059,7 +3126,7 @@
         <v>4.6</v>
       </c>
       <c r="M15" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="N15" t="n">
         <v>0.333</v>
@@ -3068,19 +3135,19 @@
         <v>19.3</v>
       </c>
       <c r="P15" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.75</v>
+        <v>0.753</v>
       </c>
       <c r="R15" t="n">
         <v>10.6</v>
       </c>
       <c r="S15" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="T15" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="U15" t="n">
         <v>16.9</v>
@@ -3092,13 +3159,13 @@
         <v>7.6</v>
       </c>
       <c r="X15" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y15" t="n">
         <v>5.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA15" t="n">
         <v>21.8</v>
@@ -3110,7 +3177,7 @@
         <v>-6.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3134,7 +3201,7 @@
         <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM15" t="n">
         <v>27</v>
@@ -3149,34 +3216,34 @@
         <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS15" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AT15" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AU15" t="n">
         <v>30</v>
       </c>
       <c r="AV15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW15" t="n">
         <v>8</v>
       </c>
       <c r="AX15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY15" t="n">
         <v>25</v>
       </c>
       <c r="AZ15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA15" t="n">
         <v>9</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-28-2008-09</t>
+          <t>2009-02-28</t>
         </is>
       </c>
     </row>
@@ -3214,37 +3281,37 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" t="n">
         <v>27</v>
       </c>
       <c r="G16" t="n">
-        <v>0.534</v>
+        <v>0.526</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="J16" t="n">
-        <v>80.90000000000001</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L16" t="n">
         <v>6.8</v>
       </c>
       <c r="M16" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="O16" t="n">
         <v>16.8</v>
@@ -3253,22 +3320,22 @@
         <v>22.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.752</v>
+        <v>0.75</v>
       </c>
       <c r="R16" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S16" t="n">
         <v>29.1</v>
       </c>
       <c r="T16" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="U16" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V16" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="W16" t="n">
         <v>8</v>
@@ -3283,16 +3350,16 @@
         <v>20.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB16" t="n">
-        <v>96.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3307,13 +3374,13 @@
         <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="n">
         <v>12</v>
@@ -3331,7 +3398,7 @@
         <v>27</v>
       </c>
       <c r="AQ16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR16" t="n">
         <v>25</v>
@@ -3343,7 +3410,7 @@
         <v>29</v>
       </c>
       <c r="AU16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV16" t="n">
         <v>3</v>
@@ -3355,19 +3422,19 @@
         <v>7</v>
       </c>
       <c r="AY16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ16" t="n">
         <v>11</v>
       </c>
       <c r="BA16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-28-2008-09</t>
+          <t>2009-02-28</t>
         </is>
       </c>
     </row>
@@ -3399,13 +3466,13 @@
         <v>61</v>
       </c>
       <c r="E17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" t="n">
-        <v>0.475</v>
+        <v>0.459</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3420,43 +3487,43 @@
         <v>0.449</v>
       </c>
       <c r="L17" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
         <v>16.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.368</v>
+        <v>0.365</v>
       </c>
       <c r="O17" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="P17" t="n">
         <v>26.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.78</v>
+        <v>0.779</v>
       </c>
       <c r="R17" t="n">
         <v>12</v>
       </c>
       <c r="S17" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T17" t="n">
         <v>40.9</v>
       </c>
       <c r="U17" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V17" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W17" t="n">
         <v>7.2</v>
       </c>
       <c r="X17" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y17" t="n">
         <v>4.7</v>
@@ -3468,19 +3535,19 @@
         <v>23.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
@@ -3495,40 +3562,40 @@
         <v>10</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM17" t="n">
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR17" t="n">
         <v>6</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>7</v>
       </c>
       <c r="AS17" t="n">
         <v>25</v>
       </c>
       <c r="AT17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW17" t="n">
         <v>15</v>
@@ -3549,7 +3616,7 @@
         <v>13</v>
       </c>
       <c r="BC17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-28-2008-09</t>
+          <t>2009-02-28</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-4.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3668,13 +3735,13 @@
         <v>25</v>
       </c>
       <c r="AH18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK18" t="n">
         <v>29</v>
@@ -3692,7 +3759,7 @@
         <v>16</v>
       </c>
       <c r="AP18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ18" t="n">
         <v>16</v>
@@ -3707,7 +3774,7 @@
         <v>11</v>
       </c>
       <c r="AU18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV18" t="n">
         <v>16</v>
@@ -3728,7 +3795,7 @@
         <v>21</v>
       </c>
       <c r="BB18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-28-2008-09</t>
+          <t>2009-02-28</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
@@ -3853,7 +3920,7 @@
         <v>7</v>
       </c>
       <c r="AI19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
         <v>14</v>
@@ -3865,22 +3932,22 @@
         <v>7</v>
       </c>
       <c r="AM19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN19" t="n">
         <v>9</v>
       </c>
       <c r="AO19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR19" t="n">
         <v>14</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>15</v>
       </c>
       <c r="AS19" t="n">
         <v>21</v>
@@ -3895,7 +3962,7 @@
         <v>9</v>
       </c>
       <c r="AW19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX19" t="n">
         <v>20</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-28-2008-09</t>
+          <t>2009-02-28</t>
         </is>
       </c>
     </row>
@@ -4020,10 +4087,10 @@
         <v>2.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF20" t="n">
         <v>8</v>
@@ -4032,7 +4099,7 @@
         <v>9</v>
       </c>
       <c r="AH20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI20" t="n">
         <v>28</v>
@@ -4065,10 +4132,10 @@
         <v>28</v>
       </c>
       <c r="AS20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU20" t="n">
         <v>25</v>
@@ -4086,10 +4153,10 @@
         <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-28-2008-09</t>
+          <t>2009-02-28</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" t="n">
         <v>24</v>
       </c>
       <c r="F21" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" t="n">
-        <v>0.407</v>
+        <v>0.414</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4142,34 +4209,34 @@
         <v>38.7</v>
       </c>
       <c r="J21" t="n">
-        <v>87</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L21" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="M21" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.365</v>
+        <v>0.363</v>
       </c>
       <c r="O21" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P21" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.793</v>
+        <v>0.794</v>
       </c>
       <c r="R21" t="n">
         <v>11.1</v>
       </c>
       <c r="S21" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T21" t="n">
         <v>42.7</v>
@@ -4196,22 +4263,22 @@
         <v>19.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>106</v>
+        <v>105.8</v>
       </c>
       <c r="AC21" t="n">
         <v>-2.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="n">
         <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH21" t="n">
         <v>20</v>
@@ -4232,13 +4299,13 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ21" t="n">
         <v>7</v>
@@ -4250,7 +4317,7 @@
         <v>8</v>
       </c>
       <c r="AT21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU21" t="n">
         <v>9</v>
@@ -4259,7 +4326,7 @@
         <v>17</v>
       </c>
       <c r="AW21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-28-2008-09</t>
+          <t>2009-02-28</t>
         </is>
       </c>
     </row>
@@ -4306,22 +4373,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" t="n">
         <v>45</v>
       </c>
       <c r="G22" t="n">
-        <v>0.237</v>
+        <v>0.224</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J22" t="n">
         <v>82.09999999999999</v>
@@ -4336,28 +4403,28 @@
         <v>11.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.368</v>
+        <v>0.369</v>
       </c>
       <c r="O22" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="P22" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.779</v>
+        <v>0.778</v>
       </c>
       <c r="R22" t="n">
         <v>12.4</v>
       </c>
       <c r="S22" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T22" t="n">
         <v>43.3</v>
       </c>
       <c r="U22" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V22" t="n">
         <v>16.5</v>
@@ -4375,37 +4442,37 @@
         <v>20.8</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="AB22" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>-6</v>
+        <v>-6.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF22" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI22" t="n">
         <v>12</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>13</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL22" t="n">
         <v>29</v>
@@ -4414,13 +4481,13 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ22" t="n">
         <v>12</v>
@@ -4441,7 +4508,7 @@
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX22" t="n">
         <v>21</v>
@@ -4453,7 +4520,7 @@
         <v>16</v>
       </c>
       <c r="BA22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB22" t="n">
         <v>19</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-28-2008-09</t>
+          <t>2009-02-28</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23" t="n">
         <v>16</v>
       </c>
       <c r="G23" t="n">
-        <v>0.729</v>
+        <v>0.724</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4512,40 +4579,40 @@
         <v>0.46</v>
       </c>
       <c r="L23" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="M23" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="N23" t="n">
         <v>0.392</v>
       </c>
       <c r="O23" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="P23" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.722</v>
+        <v>0.721</v>
       </c>
       <c r="R23" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S23" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="T23" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U23" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="V23" t="n">
         <v>14.1</v>
       </c>
       <c r="W23" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X23" t="n">
         <v>5.3</v>
@@ -4560,13 +4627,13 @@
         <v>22.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="AC23" t="n">
         <v>6.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
         <v>22</v>
@@ -4623,7 +4690,7 @@
         <v>13</v>
       </c>
       <c r="AW23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AX23" t="n">
         <v>9</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-28-2008-09</t>
+          <t>2009-02-28</t>
         </is>
       </c>
     </row>
@@ -4670,37 +4737,37 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" t="n">
         <v>29</v>
       </c>
       <c r="F24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>0.509</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J24" t="n">
         <v>80.2</v>
       </c>
       <c r="K24" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L24" t="n">
         <v>4.2</v>
       </c>
       <c r="M24" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.319</v>
+        <v>0.316</v>
       </c>
       <c r="O24" t="n">
         <v>19.5</v>
@@ -4712,16 +4779,16 @@
         <v>0.743</v>
       </c>
       <c r="R24" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S24" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T24" t="n">
-        <v>42.5</v>
+        <v>42.7</v>
       </c>
       <c r="U24" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V24" t="n">
         <v>14.9</v>
@@ -4733,22 +4800,22 @@
         <v>5.4</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA24" t="n">
         <v>21.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4760,10 +4827,10 @@
         <v>15</v>
       </c>
       <c r="AH24" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ24" t="n">
         <v>15</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP24" t="n">
         <v>7</v>
@@ -4793,16 +4860,16 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU24" t="n">
         <v>21</v>
       </c>
       <c r="AV24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW24" t="n">
         <v>5</v>
@@ -4820,7 +4887,7 @@
         <v>10</v>
       </c>
       <c r="BB24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC24" t="n">
         <v>14</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-28-2008-09</t>
+          <t>2009-02-28</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2</v>
       </c>
       <c r="AD25" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
@@ -4957,7 +5024,7 @@
         <v>18</v>
       </c>
       <c r="AM25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN25" t="n">
         <v>5</v>
@@ -4987,7 +5054,7 @@
         <v>29</v>
       </c>
       <c r="AW25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX25" t="n">
         <v>12</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-28-2008-09</t>
+          <t>2009-02-28</t>
         </is>
       </c>
     </row>
@@ -5034,52 +5101,52 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E26" t="n">
         <v>36</v>
       </c>
       <c r="F26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G26" t="n">
-        <v>0.632</v>
+        <v>0.621</v>
       </c>
       <c r="H26" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J26" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.464</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
         <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N26" t="n">
         <v>0.381</v>
       </c>
       <c r="O26" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="P26" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.762</v>
+        <v>0.76</v>
       </c>
       <c r="R26" t="n">
         <v>13</v>
       </c>
       <c r="S26" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="T26" t="n">
         <v>41.2</v>
@@ -5097,43 +5164,43 @@
         <v>4.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
         <v>20</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
@@ -5148,7 +5215,7 @@
         <v>22</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ26" t="n">
         <v>20</v>
@@ -5163,16 +5230,16 @@
         <v>15</v>
       </c>
       <c r="AU26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV26" t="n">
         <v>5</v>
       </c>
       <c r="AW26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY26" t="n">
         <v>2</v>
@@ -5184,7 +5251,7 @@
         <v>15</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-28-2008-09</t>
+          <t>2009-02-28</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
       </c>
       <c r="F27" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G27" t="n">
-        <v>0.213</v>
+        <v>0.217</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
@@ -5240,37 +5307,37 @@
         <v>0.446</v>
       </c>
       <c r="L27" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M27" t="n">
         <v>18.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.36</v>
+        <v>0.359</v>
       </c>
       <c r="O27" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="P27" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.802</v>
+        <v>0.803</v>
       </c>
       <c r="R27" t="n">
         <v>10</v>
       </c>
       <c r="S27" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="T27" t="n">
         <v>38.6</v>
       </c>
       <c r="U27" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V27" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="W27" t="n">
         <v>7</v>
@@ -5282,22 +5349,22 @@
         <v>5.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>99.09999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="AC27" t="n">
-        <v>-9.199999999999999</v>
+        <v>-9.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF27" t="n">
         <v>30</v>
@@ -5312,13 +5379,13 @@
         <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM27" t="n">
         <v>15</v>
@@ -5327,7 +5394,7 @@
         <v>21</v>
       </c>
       <c r="AO27" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AP27" t="n">
         <v>13</v>
@@ -5339,7 +5406,7 @@
         <v>26</v>
       </c>
       <c r="AS27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT27" t="n">
         <v>30</v>
@@ -5351,7 +5418,7 @@
         <v>26</v>
       </c>
       <c r="AW27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AX27" t="n">
         <v>26</v>
@@ -5366,7 +5433,7 @@
         <v>11</v>
       </c>
       <c r="BB27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-28-2008-09</t>
+          <t>2009-02-28</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5497,16 +5564,16 @@
         <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM28" t="n">
         <v>8</v>
       </c>
       <c r="AN28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5524,7 +5591,7 @@
         <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU28" t="n">
         <v>7</v>
@@ -5551,7 +5618,7 @@
         <v>22</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-28-2008-09</t>
+          <t>2009-02-28</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5682,7 +5749,7 @@
         <v>11</v>
       </c>
       <c r="AL29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM29" t="n">
         <v>22</v>
@@ -5694,7 +5761,7 @@
         <v>19</v>
       </c>
       <c r="AP29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5706,7 +5773,7 @@
         <v>13</v>
       </c>
       <c r="AT29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU29" t="n">
         <v>8</v>
@@ -5718,7 +5785,7 @@
         <v>29</v>
       </c>
       <c r="AX29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY29" t="n">
         <v>10</v>
@@ -5727,7 +5794,7 @@
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB29" t="n">
         <v>21</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-28-2008-09</t>
+          <t>2009-02-28</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F30" t="n">
         <v>23</v>
       </c>
       <c r="G30" t="n">
-        <v>0.61</v>
+        <v>0.603</v>
       </c>
       <c r="H30" t="n">
         <v>48.3</v>
@@ -5780,31 +5847,31 @@
         <v>38.2</v>
       </c>
       <c r="J30" t="n">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="K30" t="n">
-        <v>0.48</v>
+        <v>0.479</v>
       </c>
       <c r="L30" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="M30" t="n">
         <v>14</v>
       </c>
       <c r="N30" t="n">
-        <v>0.347</v>
+        <v>0.345</v>
       </c>
       <c r="O30" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="P30" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.77</v>
+        <v>0.772</v>
       </c>
       <c r="R30" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S30" t="n">
         <v>29.2</v>
@@ -5813,7 +5880,7 @@
         <v>40.8</v>
       </c>
       <c r="U30" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="V30" t="n">
         <v>14.9</v>
@@ -5825,10 +5892,10 @@
         <v>4.8</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA30" t="n">
         <v>23.8</v>
@@ -5837,13 +5904,13 @@
         <v>103</v>
       </c>
       <c r="AC30" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF30" t="n">
         <v>10</v>
@@ -5852,7 +5919,7 @@
         <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5879,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
         <v>10</v>
@@ -5894,19 +5961,19 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY30" t="n">
         <v>15</v>
       </c>
       <c r="AZ30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA30" t="n">
         <v>1</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-28-2008-09</t>
+          <t>2009-02-28</t>
         </is>
       </c>
     </row>
@@ -5944,55 +6011,55 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E31" t="n">
         <v>14</v>
       </c>
       <c r="F31" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G31" t="n">
-        <v>0.237</v>
+        <v>0.241</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J31" t="n">
-        <v>81.3</v>
+        <v>81.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L31" t="n">
         <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.322</v>
+        <v>0.323</v>
       </c>
       <c r="O31" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P31" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.763</v>
+        <v>0.762</v>
       </c>
       <c r="R31" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S31" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="T31" t="n">
-        <v>40</v>
+        <v>40.2</v>
       </c>
       <c r="U31" t="n">
         <v>20.3</v>
@@ -6007,22 +6074,22 @@
         <v>4.2</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z31" t="n">
         <v>20.7</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>94.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.4</v>
+        <v>-7.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6034,7 +6101,7 @@
         <v>28</v>
       </c>
       <c r="AH31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI31" t="n">
         <v>20</v>
@@ -6043,7 +6110,7 @@
         <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6070,7 +6137,7 @@
         <v>30</v>
       </c>
       <c r="AT31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU31" t="n">
         <v>22</v>
@@ -6085,13 +6152,13 @@
         <v>25</v>
       </c>
       <c r="AY31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-28-2008-09</t>
+          <t>2009-02-28</t>
         </is>
       </c>
     </row>
